--- a/output/2020_1021_1.xlsx
+++ b/output/2020_1021_1.xlsx
@@ -752,8 +752,16 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2020/10/21</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2020/10/21</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -891,8 +899,16 @@
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2020/10/21</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2020/10/21</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>

--- a/output/2020_1021_1.xlsx
+++ b/output/2020_1021_1.xlsx
@@ -724,7 +724,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>jooeun Bae</t>
+          <t>Baejooeun</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>jooeun Bae</t>
+          <t>Baejooeun</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -754,12 +754,12 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2020/10/21</t>
+          <t>10/21/2020</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2020/10/21</t>
+          <t>10/21/2020</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>jooeun Bae</t>
+          <t>Baejooeun</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -871,7 +871,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>jinhui mun</t>
+          <t>munjinhui</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>진희 문</t>
+          <t>문진희</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -901,12 +901,12 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2020/10/21</t>
+          <t>10/21/2020</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2020/10/21</t>
+          <t>10/21/2020</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>진희 문</t>
+          <t>문진희</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
